--- a/data/Repair_matrix_MK5 1.xlsx
+++ b/data/Repair_matrix_MK5 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.liu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\twintern\Auto Purchase\AutoPurchase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1101D663-D6F8-47F7-B1A8-56A4AB49FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8593D2-91DF-4F69-BA43-478B463D0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TW - ASML Scara XT" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>-</t>
   </si>
@@ -379,7 +379,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00_ "/>
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1230,7 +1230,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1283,59 +1283,61 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="52">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Komma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prozent 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Standard 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -1385,8 +1387,6 @@
     <cellStyle name="Währung 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Währung 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Währung 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="貨幣" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1934,42 +1934,42 @@
   </sheetPr>
   <dimension ref="A1:AH113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="60.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="4.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="3.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="11.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="3.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" style="9" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.109375" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1991,15 +1991,15 @@
       <c r="Q1" s="7"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2013,7 +2013,7 @@
       <c r="Q2" s="110"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="122" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
       <c r="F3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="136" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="10"/>
@@ -2042,7 +2042,7 @@
       <c r="N3" s="10"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="15" t="s">
         <v>7</v>
@@ -2062,7 +2062,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="15" t="s">
         <v>8</v>
@@ -2082,7 +2082,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="15"/>
       <c r="D6" s="76"/>
@@ -2099,7 +2099,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:34" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67"/>
       <c r="B7" s="79" t="s">
         <v>84</v>
@@ -2120,7 +2120,7 @@
       <c r="N7" s="68"/>
       <c r="O7" s="105"/>
     </row>
-    <row r="8" spans="1:34" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="69" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67"/>
       <c r="B8" s="79" t="s">
         <v>84</v>
@@ -2146,7 +2146,7 @@
       <c r="AC8" s="67"/>
       <c r="AD8" s="67"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="79" t="s">
         <v>84</v>
@@ -2193,12 +2193,14 @@
       <c r="AG10"/>
       <c r="AH10"/>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="47" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2226,7 @@
       <c r="AG11"/>
       <c r="AH11"/>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="79"/>
       <c r="B12" s="27" t="s">
         <v>17</v>
@@ -2249,12 +2251,14 @@
       <c r="AG12"/>
       <c r="AH12"/>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="100" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2279,7 +2283,7 @@
       <c r="AG13"/>
       <c r="AH13"/>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="27" t="s">
         <v>19</v>
@@ -2304,18 +2308,20 @@
       <c r="AG14"/>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="138" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" s="100" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E15" s="33"/>
-      <c r="F15" s="139" t="s">
+      <c r="F15" s="138" t="s">
         <v>94</v>
       </c>
       <c r="G15" s="12"/>
@@ -2332,7 +2338,7 @@
       <c r="AE15" s="70"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="79"/>
       <c r="B16" s="27" t="s">
         <v>21</v>
@@ -2355,18 +2361,20 @@
       <c r="AE16" s="70"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="79"/>
       <c r="B17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="138" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="100" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="139" t="s">
+      <c r="F17" s="138" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="12"/>
@@ -2381,9 +2389,9 @@
       <c r="AE17" s="70"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="79"/>
-      <c r="B18" s="128"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="32"/>
       <c r="D18" s="100"/>
       <c r="E18" s="33"/>
@@ -2400,9 +2408,9 @@
       <c r="AE18" s="70"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="79"/>
-      <c r="B19" s="128"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="32"/>
       <c r="D19" s="100"/>
       <c r="E19" s="33"/>
@@ -2419,9 +2427,9 @@
       <c r="AE19" s="70"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="79"/>
-      <c r="B20" s="128"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="32"/>
       <c r="D20" s="100"/>
       <c r="E20" s="33"/>
@@ -2438,18 +2446,20 @@
       <c r="AE20" s="70"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="79"/>
       <c r="B21" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="138" t="s">
+        <v>92</v>
+      </c>
       <c r="D21" s="100" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E21" s="33"/>
-      <c r="F21" s="139" t="s">
+      <c r="F21" s="138" t="s">
         <v>92</v>
       </c>
       <c r="G21" s="12"/>
@@ -2464,7 +2474,7 @@
       <c r="AE21" s="70"/>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
@@ -2483,7 +2493,7 @@
       <c r="AE22" s="70"/>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:34" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="18" t="s">
         <v>24</v>
@@ -2507,7 +2517,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
     </row>
-    <row r="24" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="46" t="s">
         <v>25</v>
@@ -2519,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="49"/>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="128" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="53"/>
@@ -2534,7 +2544,7 @@
       <c r="AE24" s="70"/>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="96" t="s">
         <v>27</v>
@@ -2545,7 +2555,7 @@
         <v>#REF!</v>
       </c>
       <c r="E25" s="33"/>
-      <c r="F25" s="130"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="53"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -2558,18 +2568,20 @@
       <c r="AE25" s="70"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="129" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E26" s="33"/>
-      <c r="F26" s="130" t="s">
+      <c r="F26" s="129" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="53"/>
@@ -2584,13 +2596,13 @@
       <c r="AE26" s="70"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="13.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="13.15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="74"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="130"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2603,18 +2615,20 @@
       <c r="AE27" s="70"/>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="1:34" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="129">
+        <v>610301</v>
+      </c>
       <c r="D28" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="130">
+      <c r="F28" s="129">
         <v>610301</v>
       </c>
       <c r="G28" s="15"/>
@@ -2629,18 +2643,20 @@
       <c r="AE28" s="70"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="135" t="s">
+        <v>87</v>
+      </c>
       <c r="D29" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="136" t="s">
+      <c r="F29" s="135" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="15"/>
@@ -2655,18 +2671,20 @@
       <c r="AE29" s="70"/>
       <c r="AF29" s="12"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="135" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="136" t="s">
+      <c r="F30" s="135" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2681,13 +2699,13 @@
       <c r="AE30" s="70"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="74"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="130"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="15"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -2700,18 +2718,20 @@
       <c r="AE31" s="70"/>
       <c r="AF31" s="12"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="135" t="s">
+        <v>90</v>
+      </c>
       <c r="D32" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E32" s="33"/>
-      <c r="F32" s="136" t="s">
+      <c r="F32" s="135" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="15"/>
@@ -2726,13 +2746,13 @@
       <c r="AE32" s="70"/>
       <c r="AF32" s="12"/>
     </row>
-    <row r="33" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
       <c r="D33" s="42"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="131"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="112"/>
       <c r="H33" s="114"/>
       <c r="I33" s="114"/>
@@ -2745,13 +2765,13 @@
       <c r="AE33" s="70"/>
       <c r="AF33" s="12"/>
     </row>
-    <row r="34" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="57"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="132"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="112"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -2764,7 +2784,7 @@
       <c r="AE34" s="70"/>
       <c r="AF34" s="12"/>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="18" t="s">
         <v>33</v>
@@ -2772,7 +2792,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="45"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="133"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -2788,7 +2808,7 @@
       <c r="AG35"/>
       <c r="AH35"/>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="46" t="s">
         <v>13</v>
@@ -2798,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="49"/>
-      <c r="F36" s="129" t="s">
+      <c r="F36" s="128" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="15"/>
@@ -2816,7 +2836,7 @@
       <c r="AG36"/>
       <c r="AH36"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="79"/>
       <c r="B37" s="27" t="s">
         <v>34</v>
@@ -2824,7 +2844,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="134"/>
+      <c r="F37" s="133"/>
       <c r="G37" s="53"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -2837,18 +2857,20 @@
       <c r="AE37" s="70"/>
       <c r="AF37" s="12"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="79"/>
       <c r="B38" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="129" t="s">
+        <v>97</v>
+      </c>
       <c r="D38" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E38" s="54"/>
-      <c r="F38" s="130" t="s">
+      <c r="F38" s="129" t="s">
         <v>97</v>
       </c>
       <c r="G38" s="53"/>
@@ -2863,18 +2885,20 @@
       <c r="AE38" s="70"/>
       <c r="AF38" s="12"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="79"/>
       <c r="B39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="129" t="s">
+        <v>98</v>
+      </c>
       <c r="D39" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E39" s="54"/>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="129" t="s">
         <v>98</v>
       </c>
       <c r="G39" s="53"/>
@@ -2889,18 +2913,20 @@
       <c r="AE39" s="70"/>
       <c r="AF39" s="12"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="79"/>
       <c r="B40" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="129" t="s">
+        <v>99</v>
+      </c>
       <c r="D40" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E40" s="54"/>
-      <c r="F40" s="130" t="s">
+      <c r="F40" s="129" t="s">
         <v>99</v>
       </c>
       <c r="G40" s="53"/>
@@ -2915,18 +2941,20 @@
       <c r="AE40" s="70"/>
       <c r="AF40" s="12"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
       <c r="B41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="129" t="s">
+        <v>100</v>
+      </c>
       <c r="D41" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E41" s="54"/>
-      <c r="F41" s="130" t="s">
+      <c r="F41" s="129" t="s">
         <v>100</v>
       </c>
       <c r="G41" s="53"/>
@@ -2941,18 +2969,20 @@
       <c r="AE41" s="70"/>
       <c r="AF41" s="12"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
       <c r="B42" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="129" t="s">
+        <v>101</v>
+      </c>
       <c r="D42" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E42" s="54"/>
-      <c r="F42" s="130" t="s">
+      <c r="F42" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G42" s="53"/>
@@ -2967,18 +2997,20 @@
       <c r="AE42" s="70"/>
       <c r="AF42" s="12"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
       <c r="B43" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="129" t="s">
+        <v>102</v>
+      </c>
       <c r="D43" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E43" s="54"/>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="129" t="s">
         <v>102</v>
       </c>
       <c r="G43" s="53"/>
@@ -2993,18 +3025,20 @@
       <c r="AE43" s="70"/>
       <c r="AF43" s="12"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
       <c r="B44" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="129">
+        <v>609743</v>
+      </c>
       <c r="D44" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E44" s="54"/>
-      <c r="F44" s="130">
+      <c r="F44" s="129">
         <v>609743</v>
       </c>
       <c r="G44" s="53"/>
@@ -3019,18 +3053,20 @@
       <c r="AE44" s="70"/>
       <c r="AF44" s="12"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="79"/>
       <c r="B45" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="129">
+        <v>606168</v>
+      </c>
       <c r="D45" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E45" s="54"/>
-      <c r="F45" s="130">
+      <c r="F45" s="129">
         <v>606168</v>
       </c>
       <c r="G45" s="53"/>
@@ -3045,18 +3081,20 @@
       <c r="AE45" s="70"/>
       <c r="AF45" s="12"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="79"/>
       <c r="B46" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="129">
+        <v>607169</v>
+      </c>
       <c r="D46" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E46" s="54"/>
-      <c r="F46" s="130">
+      <c r="F46" s="129">
         <v>607169</v>
       </c>
       <c r="G46" s="53"/>
@@ -3071,18 +3109,20 @@
       <c r="AE46" s="70"/>
       <c r="AF46" s="12"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="79"/>
       <c r="B47" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="51"/>
+      <c r="C47" s="129" t="s">
+        <v>103</v>
+      </c>
       <c r="D47" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E47" s="54"/>
-      <c r="F47" s="130" t="s">
+      <c r="F47" s="129" t="s">
         <v>103</v>
       </c>
       <c r="G47" s="53"/>
@@ -3097,18 +3137,20 @@
       <c r="AE47" s="70"/>
       <c r="AF47" s="12"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="79"/>
       <c r="B48" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="129">
+        <v>612038</v>
+      </c>
       <c r="D48" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E48" s="54"/>
-      <c r="F48" s="130">
+      <c r="F48" s="129">
         <v>612038</v>
       </c>
       <c r="G48" s="53"/>
@@ -3123,18 +3165,20 @@
       <c r="AE48" s="70"/>
       <c r="AF48" s="12"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="79"/>
       <c r="B49" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="129" t="s">
+        <v>104</v>
+      </c>
       <c r="D49" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E49" s="54"/>
-      <c r="F49" s="130" t="s">
+      <c r="F49" s="129" t="s">
         <v>104</v>
       </c>
       <c r="G49" s="53"/>
@@ -3149,7 +3193,7 @@
       <c r="AE49" s="70"/>
       <c r="AF49" s="12"/>
     </row>
-    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="57" t="s">
         <v>47</v>
@@ -3157,7 +3201,7 @@
       <c r="C50" s="51"/>
       <c r="D50" s="52"/>
       <c r="E50" s="116"/>
-      <c r="F50" s="132"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="53"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -3173,7 +3217,7 @@
       <c r="AG50"/>
       <c r="AH50"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="79"/>
       <c r="B51" s="27" t="s">
         <v>48</v>
@@ -3181,7 +3225,7 @@
       <c r="C51" s="35"/>
       <c r="D51" s="36"/>
       <c r="E51" s="37"/>
-      <c r="F51" s="134"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="53"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -3194,18 +3238,20 @@
       <c r="AE51" s="70"/>
       <c r="AF51" s="12"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="79"/>
       <c r="B52" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="129">
+        <v>400370</v>
+      </c>
       <c r="D52" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E52" s="54"/>
-      <c r="F52" s="130">
+      <c r="F52" s="129">
         <v>400370</v>
       </c>
       <c r="G52" s="53"/>
@@ -3220,18 +3266,20 @@
       <c r="AE52" s="70"/>
       <c r="AF52" s="12"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="79"/>
       <c r="B53" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="129">
+        <v>604303</v>
+      </c>
       <c r="D53" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E53" s="54"/>
-      <c r="F53" s="130">
+      <c r="F53" s="129">
         <v>604303</v>
       </c>
       <c r="G53" s="53"/>
@@ -3246,18 +3294,20 @@
       <c r="AE53" s="70"/>
       <c r="AF53" s="12"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="79"/>
       <c r="B54" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="129">
+        <v>604336</v>
+      </c>
       <c r="D54" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E54" s="54"/>
-      <c r="F54" s="130">
+      <c r="F54" s="129">
         <v>604336</v>
       </c>
       <c r="G54" s="53"/>
@@ -3272,18 +3322,20 @@
       <c r="AE54" s="70"/>
       <c r="AF54" s="12"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="79"/>
       <c r="B55" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="129">
+        <v>400370</v>
+      </c>
       <c r="D55" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E55" s="54"/>
-      <c r="F55" s="130">
+      <c r="F55" s="129">
         <v>400370</v>
       </c>
       <c r="G55" s="53"/>
@@ -3298,18 +3350,20 @@
       <c r="AE55" s="70"/>
       <c r="AF55" s="12"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="79"/>
       <c r="B56" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="129">
+        <v>400390</v>
+      </c>
       <c r="D56" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E56" s="54"/>
-      <c r="F56" s="130">
+      <c r="F56" s="129">
         <v>400390</v>
       </c>
       <c r="G56" s="53"/>
@@ -3324,7 +3378,7 @@
       <c r="AE56" s="12"/>
       <c r="AF56" s="12"/>
     </row>
-    <row r="57" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="57" t="s">
         <v>54</v>
@@ -3332,7 +3386,7 @@
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
       <c r="E57" s="116"/>
-      <c r="F57" s="132"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="53"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -3346,7 +3400,7 @@
       <c r="AE57" s="15"/>
       <c r="AF57" s="15"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="79"/>
       <c r="B58" s="27" t="s">
         <v>55</v>
@@ -3354,7 +3408,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="36"/>
       <c r="E58" s="37"/>
-      <c r="F58" s="134"/>
+      <c r="F58" s="133"/>
       <c r="G58" s="53"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -3367,18 +3421,20 @@
       <c r="AE58" s="12"/>
       <c r="AF58" s="12"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="79"/>
       <c r="B59" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="129">
+        <v>605706</v>
+      </c>
       <c r="D59" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E59" s="54"/>
-      <c r="F59" s="130">
+      <c r="F59" s="129">
         <v>605706</v>
       </c>
       <c r="G59" s="53"/>
@@ -3392,18 +3448,20 @@
       <c r="Q59"/>
       <c r="AE59" s="12"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="79"/>
       <c r="B60" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="129">
+        <v>607172</v>
+      </c>
       <c r="D60" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E60" s="54"/>
-      <c r="F60" s="130">
+      <c r="F60" s="129">
         <v>607172</v>
       </c>
       <c r="G60" s="53"/>
@@ -3417,18 +3475,20 @@
       <c r="Q60"/>
       <c r="AE60" s="12"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="79"/>
       <c r="B61" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="129" t="s">
+        <v>85</v>
+      </c>
       <c r="D61" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E61" s="54"/>
-      <c r="F61" s="130" t="s">
+      <c r="F61" s="129" t="s">
         <v>85</v>
       </c>
       <c r="G61" s="53"/>
@@ -3442,18 +3502,20 @@
       <c r="Q61"/>
       <c r="AE61" s="12"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="79"/>
       <c r="B62" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="129" t="s">
+        <v>86</v>
+      </c>
       <c r="D62" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E62" s="54"/>
-      <c r="F62" s="130" t="s">
+      <c r="F62" s="129" t="s">
         <v>86</v>
       </c>
       <c r="G62" s="53"/>
@@ -3468,18 +3530,20 @@
       <c r="AE62" s="12"/>
       <c r="AF62" s="12"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="79"/>
       <c r="B63" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="129">
+        <v>609808</v>
+      </c>
       <c r="D63" s="52" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="E63" s="54"/>
-      <c r="F63" s="130">
+      <c r="F63" s="129">
         <v>609808</v>
       </c>
       <c r="G63" s="53"/>
@@ -3498,17 +3562,19 @@
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="79"/>
       <c r="B64" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="135" t="s">
+        <v>88</v>
+      </c>
       <c r="D64" s="52">
         <v>425.27</v>
       </c>
       <c r="E64" s="54"/>
-      <c r="F64" s="136" t="s">
+      <c r="F64" s="135" t="s">
         <v>88</v>
       </c>
       <c r="G64" s="53"/>
@@ -3519,7 +3585,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
-      <c r="O64" s="138"/>
+      <c r="O64" s="137"/>
       <c r="S64"/>
       <c r="T64" s="9"/>
       <c r="U64"/>
@@ -3528,17 +3594,19 @@
       <c r="AA64" s="12"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="79"/>
       <c r="B65" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="129">
+        <v>510094</v>
+      </c>
       <c r="D65" s="52">
         <v>203.4</v>
       </c>
       <c r="E65" s="54"/>
-      <c r="F65" s="130">
+      <c r="F65" s="129">
         <v>510094</v>
       </c>
       <c r="G65" s="15"/>
@@ -3557,7 +3625,7 @@
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="57" t="s">
         <v>63</v>
@@ -3565,7 +3633,7 @@
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
       <c r="E66" s="116"/>
-      <c r="F66" s="132"/>
+      <c r="F66" s="131"/>
       <c r="G66" s="53"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -3582,13 +3650,13 @@
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
     </row>
-    <row r="67" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="40"/>
       <c r="C67" s="41"/>
       <c r="D67" s="42"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="135"/>
+      <c r="F67" s="134"/>
       <c r="G67" s="15"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -3605,7 +3673,7 @@
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
     </row>
-    <row r="68" spans="1:32" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="18" t="s">
         <v>64</v>
@@ -3627,7 +3695,7 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
     </row>
-    <row r="69" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="46" t="s">
         <v>65</v>
@@ -3656,7 +3724,7 @@
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="74" t="s">
         <v>66</v>
@@ -3685,7 +3753,7 @@
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="74" t="s">
         <v>67</v>
@@ -3713,7 +3781,7 @@
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="74" t="s">
         <v>68</v>
@@ -3741,7 +3809,7 @@
       <c r="AA72" s="12"/>
       <c r="AB72" s="12"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="74" t="s">
         <v>69</v>
@@ -3767,7 +3835,7 @@
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="74" t="s">
         <v>70</v>
@@ -3791,7 +3859,7 @@
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="57" t="s">
         <v>71</v>
@@ -3819,7 +3887,7 @@
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
       <c r="B76" s="57" t="s">
         <v>72</v>
@@ -3843,7 +3911,7 @@
       <c r="AE76" s="12"/>
       <c r="AF76" s="12"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
       <c r="B77" s="57" t="s">
         <v>73</v>
@@ -3867,7 +3935,7 @@
       <c r="AE77" s="12"/>
       <c r="AF77" s="12"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="74" t="s">
         <v>74</v>
@@ -3892,7 +3960,7 @@
       <c r="AE78" s="12"/>
       <c r="AF78" s="12"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
       <c r="B79" s="57" t="s">
         <v>75</v>
@@ -3918,7 +3986,7 @@
       <c r="AE79" s="12"/>
       <c r="AF79" s="12"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
       <c r="B80" s="74" t="s">
         <v>76</v>
@@ -3943,7 +4011,7 @@
       <c r="AE80" s="12"/>
       <c r="AF80" s="12"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="74" t="s">
         <v>77</v>
@@ -3964,7 +4032,7 @@
       <c r="AE81" s="12"/>
       <c r="AF81" s="12"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
       <c r="B82" s="74" t="s">
         <v>77</v>
@@ -3986,7 +4054,7 @@
       <c r="AE82" s="12"/>
       <c r="AF82" s="12"/>
     </row>
-    <row r="83" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="63"/>
       <c r="C83" s="64"/>
@@ -4006,7 +4074,7 @@
       <c r="AE83" s="12"/>
       <c r="AF83" s="12"/>
     </row>
-    <row r="84" spans="1:34" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="118" t="s">
         <v>78</v>
@@ -4031,7 +4099,7 @@
       <c r="AE84" s="12"/>
       <c r="AF84" s="12"/>
     </row>
-    <row r="85" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="85"/>
       <c r="B85" s="97"/>
       <c r="C85" s="85"/>
@@ -4065,7 +4133,7 @@
       <c r="AG85" s="83"/>
       <c r="AH85" s="83"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="15"/>
       <c r="C86" s="12"/>
@@ -4090,7 +4158,7 @@
       <c r="V86"/>
       <c r="X86"/>
     </row>
-    <row r="87" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="15"/>
       <c r="C87" s="12"/>
@@ -4115,182 +4183,182 @@
       <c r="V87"/>
       <c r="X87"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
@@ -4305,7 +4373,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.98425196850393704" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -4550,14 +4618,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="852f18ca-49d4-4b50-9b9c-de1653fab1e1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4567,12 +4633,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="852f18ca-49d4-4b50-9b9c-de1653fab1e1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4595,12 +4663,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BB3AF2-62CC-464E-94B3-DB9A2E44CDF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BEB5BD-C473-40A8-BA2B-F548E525BF89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="852f18ca-49d4-4b50-9b9c-de1653fab1e1"/>
-    <ds:schemaRef ds:uri="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4615,9 +4680,12 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BEB5BD-C473-40A8-BA2B-F548E525BF89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BB3AF2-62CC-464E-94B3-DB9A2E44CDF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="852f18ca-49d4-4b50-9b9c-de1653fab1e1"/>
+    <ds:schemaRef ds:uri="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Repair_matrix_MK5 1.xlsx
+++ b/data/Repair_matrix_MK5 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\twintern\Auto Purchase\AutoPurchase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8593D2-91DF-4F69-BA43-478B463D0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DFF51-D6CB-48C6-96E4-BCE6934C494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>-</t>
   </si>
@@ -1934,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:AH113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2391,8 +2391,12 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="79"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>92</v>
+      </c>
       <c r="D18" s="100"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
@@ -4383,6 +4387,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="852f18ca-49d4-4b50-9b9c-de1653fab1e1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
+  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!kXgO2NbdBk2UdxD1UYuI19os3cfd8v1NmHXkVIL2xlrKGC-F1ElQS5uc3hZT-rHh%2F013MWTHBMESSP2RGKSMVEIBUMAK6ZUSYRS:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly9hc3lzbWljcm8uc2hhcmVwb2ludC5jb20vOnU6L3MvQ29uY2VwdEFTWVNEb2N1bWVudFNlcnZlci9FWVNVbjZpWlVtVklnTkdBVjdOSllqSUJRQUc5VE1GZV9HQTB5T3REakJLSUpn"/>
+</scriptIds>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001D01BBC5119E524A92B7FE09E77D259C" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c5c0b05ce2e5976a62060f542f532247">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="852f18ca-49d4-4b50-9b9c-de1653fab1e1" xmlns:ns3="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b1a89ed485c02eb66dc07ab539657c8" ns2:_="" ns3:_="">
     <xsd:import namespace="852f18ca-49d4-4b50-9b9c-de1653fab1e1"/>
@@ -4617,33 +4647,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BB3AF2-62CC-464E-94B3-DB9A2E44CDF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="852f18ca-49d4-4b50-9b9c-de1653fab1e1"/>
+    <ds:schemaRef ds:uri="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
-  <scriptId xmlns="" id="ms-officescript%3A%2F%2Fsharepoint_itemlink%2Fb!kXgO2NbdBk2UdxD1UYuI19os3cfd8v1NmHXkVIL2xlrKGC-F1ElQS5uc3hZT-rHh%2F013MWTHBMESSP2RGKSMVEIBUMAK6ZUSYRS:ms-officescript%3A%2F%2Fsharepoint_sharinglink%2Fu!aHR0cHM6Ly9hc3lzbWljcm8uc2hhcmVwb2ludC5jb20vOnU6L3MvQ29uY2VwdEFTWVNEb2N1bWVudFNlcnZlci9FWVNVbjZpWlVtVklnTkdBVjdOSllqSUJRQUc5VE1GZV9HQTB5T3REakJLSUpn"/>
-</scriptIds>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9252F6-996E-4328-B9B8-13EF7DD050F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="852f18ca-49d4-4b50-9b9c-de1653fab1e1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BEB5BD-C473-40A8-BA2B-F548E525BF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B9DC06-530D-4AF4-8194-F7E083C0B58D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4660,32 +4692,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BEB5BD-C473-40A8-BA2B-F548E525BF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9252F6-996E-4328-B9B8-13EF7DD050F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BB3AF2-62CC-464E-94B3-DB9A2E44CDF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="852f18ca-49d4-4b50-9b9c-de1653fab1e1"/>
-    <ds:schemaRef ds:uri="c7dd2cda-f2dd-4dfd-9875-e45482f6c65a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>